--- a/wiki/plan/Missed plan.xlsx
+++ b/wiki/plan/Missed plan.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>No.</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>Chưa có giao diện của Admin</t>
-  </si>
-  <si>
-    <t>Chưa update lại DB theo yêu cầu của thầy ngày 24/01/2014</t>
   </si>
 </sst>
 </file>
@@ -582,12 +579,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,6 +606,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -922,7 +919,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,37 +934,37 @@
     <col min="9" max="9" width="83" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="33" customFormat="1" ht="28.5">
+    <row r="1" spans="1:9" s="31" customFormat="1" ht="28.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A2" s="29">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -980,11 +977,11 @@
         <v>2</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="35"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A3" s="30"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
@@ -995,11 +992,11 @@
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="35"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
@@ -1010,11 +1007,11 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="35"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
@@ -1025,13 +1022,13 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="33" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A6" s="30"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1040,11 +1037,11 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="35"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A7" s="30"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
@@ -1053,11 +1050,11 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="35"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A8" s="30">
+      <c r="A8" s="42">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -1068,11 +1065,11 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
@@ -1081,11 +1078,11 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="35"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
@@ -1094,11 +1091,11 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="35"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -1107,11 +1104,11 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="35"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1117,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="35"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
@@ -1135,7 +1132,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="36"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="15.75">
@@ -1152,7 +1149,7 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="36"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
@@ -1169,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="34" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="25" t="s">
@@ -1190,7 +1187,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="34" t="s">
         <v>2</v>
       </c>
       <c r="I16" s="25" t="s">
@@ -1209,7 +1206,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="36"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
@@ -1232,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="36"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
@@ -1247,7 +1244,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="36"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
@@ -1264,12 +1261,8 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>75</v>
-      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="17">
@@ -1285,7 +1278,7 @@
       <c r="G21" s="18">
         <v>41685</v>
       </c>
-      <c r="H21" s="36"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
@@ -1300,7 +1293,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="36"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" hidden="1">
@@ -1317,7 +1310,7 @@
       <c r="G23" s="20">
         <v>41685</v>
       </c>
-      <c r="H23" s="37"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" hidden="1">
@@ -1336,7 +1329,7 @@
       <c r="G24" s="20">
         <v>41685</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" hidden="1">
@@ -1355,7 +1348,7 @@
       <c r="G25" s="20">
         <v>41685</v>
       </c>
-      <c r="H25" s="36"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" hidden="1">
@@ -1372,7 +1365,7 @@
       <c r="G26" s="20">
         <v>41685</v>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" hidden="1">
@@ -1391,7 +1384,7 @@
       <c r="G27" s="20">
         <v>41685</v>
       </c>
-      <c r="H27" s="36"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" hidden="1">
@@ -1410,7 +1403,7 @@
       <c r="G28" s="20">
         <v>41685</v>
       </c>
-      <c r="H28" s="36"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" hidden="1">
@@ -1429,7 +1422,7 @@
       <c r="G29" s="20">
         <v>41685</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="34"/>
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" hidden="1">
@@ -1448,7 +1441,7 @@
       <c r="G30" s="20">
         <v>41685</v>
       </c>
-      <c r="H30" s="36"/>
+      <c r="H30" s="34"/>
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" hidden="1">
@@ -1467,7 +1460,7 @@
       <c r="G31" s="20">
         <v>41685</v>
       </c>
-      <c r="H31" s="38"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" hidden="1">
@@ -1486,7 +1479,7 @@
       <c r="G32" s="20">
         <v>41685</v>
       </c>
-      <c r="H32" s="38"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" hidden="1">
@@ -1505,7 +1498,7 @@
       <c r="G33" s="20">
         <v>41685</v>
       </c>
-      <c r="H33" s="38"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" hidden="1">
@@ -1524,7 +1517,7 @@
       <c r="G34" s="20">
         <v>41685</v>
       </c>
-      <c r="H34" s="38"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" hidden="1">
@@ -1543,7 +1536,7 @@
       <c r="G35" s="20">
         <v>41685</v>
       </c>
-      <c r="H35" s="38"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" hidden="1">
@@ -1562,7 +1555,7 @@
       <c r="G36" s="20">
         <v>41685</v>
       </c>
-      <c r="H36" s="38"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" hidden="1">
@@ -1579,7 +1572,7 @@
       <c r="G37" s="20">
         <v>41685</v>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" hidden="1">
@@ -1598,7 +1591,7 @@
       <c r="G38" s="20">
         <v>41685</v>
       </c>
-      <c r="H38" s="38"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" hidden="1">
@@ -1617,7 +1610,7 @@
       <c r="G39" s="20">
         <v>41685</v>
       </c>
-      <c r="H39" s="38"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" hidden="1">
@@ -1636,7 +1629,7 @@
       <c r="G40" s="20">
         <v>41685</v>
       </c>
-      <c r="H40" s="38"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" hidden="1">
@@ -1655,7 +1648,7 @@
       <c r="G41" s="20">
         <v>41685</v>
       </c>
-      <c r="H41" s="38"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" hidden="1">
@@ -1674,7 +1667,7 @@
       <c r="G42" s="20">
         <v>41685</v>
       </c>
-      <c r="H42" s="38"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" hidden="1">
@@ -1693,7 +1686,7 @@
       <c r="G43" s="20">
         <v>41685</v>
       </c>
-      <c r="H43" s="38"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" hidden="1">
@@ -1712,7 +1705,7 @@
       <c r="G44" s="20">
         <v>41685</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" hidden="1">
@@ -1729,7 +1722,7 @@
       <c r="G45" s="20">
         <v>41685</v>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" hidden="1">
@@ -1748,7 +1741,7 @@
       <c r="G46" s="20">
         <v>41685</v>
       </c>
-      <c r="H46" s="38"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" hidden="1">
@@ -1767,7 +1760,7 @@
       <c r="G47" s="20">
         <v>41685</v>
       </c>
-      <c r="H47" s="38"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" hidden="1">
@@ -1786,7 +1779,7 @@
       <c r="G48" s="20">
         <v>41685</v>
       </c>
-      <c r="H48" s="38"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" hidden="1">
@@ -1805,7 +1798,7 @@
       <c r="G49" s="20">
         <v>41685</v>
       </c>
-      <c r="H49" s="38"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" hidden="1">
@@ -1824,7 +1817,7 @@
       <c r="G50" s="20">
         <v>41685</v>
       </c>
-      <c r="H50" s="38"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="25"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" hidden="1">
@@ -1843,7 +1836,7 @@
       <c r="G51" s="20">
         <v>41685</v>
       </c>
-      <c r="H51" s="38"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="25"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" hidden="1">
@@ -1862,7 +1855,7 @@
       <c r="G52" s="20">
         <v>41685</v>
       </c>
-      <c r="H52" s="38"/>
+      <c r="H52" s="36"/>
       <c r="I52" s="25"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" hidden="1">
@@ -1881,7 +1874,7 @@
       <c r="G53" s="20">
         <v>41685</v>
       </c>
-      <c r="H53" s="38"/>
+      <c r="H53" s="36"/>
       <c r="I53" s="25"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" hidden="1">
@@ -1900,7 +1893,7 @@
       <c r="G54" s="20">
         <v>41685</v>
       </c>
-      <c r="H54" s="38"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" hidden="1">
@@ -1919,7 +1912,7 @@
       <c r="G55" s="20">
         <v>41685</v>
       </c>
-      <c r="H55" s="38"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" hidden="1">
@@ -1938,7 +1931,7 @@
       <c r="G56" s="20">
         <v>41685</v>
       </c>
-      <c r="H56" s="38"/>
+      <c r="H56" s="36"/>
       <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" hidden="1">
@@ -1957,7 +1950,7 @@
       <c r="G57" s="20">
         <v>41685</v>
       </c>
-      <c r="H57" s="38"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" hidden="1">
@@ -1976,7 +1969,7 @@
       <c r="G58" s="20">
         <v>41685</v>
       </c>
-      <c r="H58" s="38"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" hidden="1">
@@ -1995,7 +1988,7 @@
       <c r="G59" s="20">
         <v>41685</v>
       </c>
-      <c r="H59" s="38"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" hidden="1">
@@ -2014,7 +2007,7 @@
       <c r="G60" s="20">
         <v>41685</v>
       </c>
-      <c r="H60" s="38"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" hidden="1">
@@ -2033,7 +2026,7 @@
       <c r="G61" s="20">
         <v>41685</v>
       </c>
-      <c r="H61" s="38"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="25"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" hidden="1">
@@ -2052,7 +2045,7 @@
       <c r="G62" s="20">
         <v>41685</v>
       </c>
-      <c r="H62" s="38"/>
+      <c r="H62" s="36"/>
       <c r="I62" s="25"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" hidden="1">
@@ -2071,7 +2064,7 @@
       <c r="G63" s="20">
         <v>41685</v>
       </c>
-      <c r="H63" s="38"/>
+      <c r="H63" s="36"/>
       <c r="I63" s="25"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" hidden="1">
@@ -2090,7 +2083,7 @@
       <c r="G64" s="20">
         <v>41685</v>
       </c>
-      <c r="H64" s="38"/>
+      <c r="H64" s="36"/>
       <c r="I64" s="25"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" hidden="1">
@@ -2109,7 +2102,7 @@
       <c r="G65" s="20">
         <v>41685</v>
       </c>
-      <c r="H65" s="38"/>
+      <c r="H65" s="36"/>
       <c r="I65" s="25"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" hidden="1">
@@ -2128,7 +2121,7 @@
       <c r="G66" s="20">
         <v>41685</v>
       </c>
-      <c r="H66" s="38"/>
+      <c r="H66" s="36"/>
       <c r="I66" s="25"/>
     </row>
     <row r="67" spans="1:9">
@@ -2141,7 +2134,7 @@
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
       <c r="G67" s="27"/>
-      <c r="H67" s="40"/>
+      <c r="H67" s="38"/>
       <c r="I67" s="25"/>
     </row>
     <row r="68" spans="1:9">
@@ -2154,7 +2147,7 @@
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
       <c r="G68" s="27"/>
-      <c r="H68" s="40"/>
+      <c r="H68" s="38"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="1:9">
@@ -2167,7 +2160,7 @@
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
       <c r="G69" s="27"/>
-      <c r="H69" s="40"/>
+      <c r="H69" s="38"/>
       <c r="I69" s="25"/>
     </row>
     <row r="70" spans="1:9">
@@ -2180,7 +2173,7 @@
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="27"/>
-      <c r="H70" s="40"/>
+      <c r="H70" s="38"/>
       <c r="I70" s="25"/>
     </row>
     <row r="71" spans="1:9">
@@ -2193,7 +2186,7 @@
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
       <c r="G71" s="27"/>
-      <c r="H71" s="40"/>
+      <c r="H71" s="38"/>
       <c r="I71" s="25"/>
     </row>
     <row r="72" spans="1:9">
@@ -2206,7 +2199,7 @@
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
       <c r="G72" s="27"/>
-      <c r="H72" s="40"/>
+      <c r="H72" s="38"/>
       <c r="I72" s="25"/>
     </row>
     <row r="73" spans="1:9">
@@ -2219,7 +2212,7 @@
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
       <c r="G73" s="27"/>
-      <c r="H73" s="40"/>
+      <c r="H73" s="38"/>
       <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9">
@@ -2232,7 +2225,7 @@
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
       <c r="G74" s="27"/>
-      <c r="H74" s="40"/>
+      <c r="H74" s="38"/>
       <c r="I74" s="25"/>
     </row>
     <row r="75" spans="1:9">
@@ -2245,7 +2238,7 @@
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
       <c r="G75" s="27"/>
-      <c r="H75" s="40"/>
+      <c r="H75" s="38"/>
       <c r="I75" s="25"/>
     </row>
     <row r="76" spans="1:9">
@@ -2258,7 +2251,7 @@
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
       <c r="G76" s="27"/>
-      <c r="H76" s="40"/>
+      <c r="H76" s="38"/>
       <c r="I76" s="25"/>
     </row>
     <row r="77" spans="1:9">
@@ -2271,7 +2264,7 @@
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
       <c r="G77" s="27"/>
-      <c r="H77" s="40"/>
+      <c r="H77" s="38"/>
       <c r="I77" s="25"/>
     </row>
     <row r="78" spans="1:9">
@@ -2284,7 +2277,7 @@
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
       <c r="G78" s="27"/>
-      <c r="H78" s="40"/>
+      <c r="H78" s="38"/>
       <c r="I78" s="25"/>
     </row>
     <row r="79" spans="1:9">
@@ -2297,7 +2290,7 @@
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
       <c r="G79" s="27"/>
-      <c r="H79" s="40"/>
+      <c r="H79" s="38"/>
       <c r="I79" s="25"/>
     </row>
     <row r="80" spans="1:9">
@@ -2310,7 +2303,7 @@
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
       <c r="G80" s="27"/>
-      <c r="H80" s="40"/>
+      <c r="H80" s="38"/>
       <c r="I80" s="25"/>
     </row>
     <row r="81" spans="1:9">
@@ -2323,7 +2316,7 @@
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
       <c r="G81" s="27"/>
-      <c r="H81" s="40"/>
+      <c r="H81" s="38"/>
       <c r="I81" s="25"/>
     </row>
     <row r="82" spans="1:9">
@@ -2336,7 +2329,7 @@
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
       <c r="G82" s="27"/>
-      <c r="H82" s="40"/>
+      <c r="H82" s="38"/>
       <c r="I82" s="25"/>
     </row>
     <row r="83" spans="1:9">
@@ -2349,7 +2342,7 @@
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
       <c r="G83" s="27"/>
-      <c r="H83" s="40"/>
+      <c r="H83" s="38"/>
       <c r="I83" s="25"/>
     </row>
     <row r="84" spans="1:9">
@@ -2362,7 +2355,7 @@
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
       <c r="G84" s="27"/>
-      <c r="H84" s="40"/>
+      <c r="H84" s="38"/>
       <c r="I84" s="25"/>
     </row>
     <row r="85" spans="1:9">
@@ -2375,7 +2368,7 @@
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
       <c r="G85" s="27"/>
-      <c r="H85" s="40"/>
+      <c r="H85" s="38"/>
       <c r="I85" s="25"/>
     </row>
     <row r="86" spans="1:9">
@@ -2388,7 +2381,7 @@
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
       <c r="G86" s="27"/>
-      <c r="H86" s="40"/>
+      <c r="H86" s="38"/>
       <c r="I86" s="25"/>
     </row>
     <row r="87" spans="1:9">
@@ -2401,7 +2394,7 @@
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
       <c r="G87" s="27"/>
-      <c r="H87" s="40"/>
+      <c r="H87" s="38"/>
       <c r="I87" s="25"/>
     </row>
     <row r="88" spans="1:9">
@@ -2414,7 +2407,7 @@
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
       <c r="G88" s="27"/>
-      <c r="H88" s="40"/>
+      <c r="H88" s="38"/>
       <c r="I88" s="25"/>
     </row>
     <row r="89" spans="1:9">
@@ -2427,7 +2420,7 @@
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
       <c r="G89" s="27"/>
-      <c r="H89" s="40"/>
+      <c r="H89" s="38"/>
       <c r="I89" s="25"/>
     </row>
     <row r="90" spans="1:9">
@@ -2440,7 +2433,7 @@
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
       <c r="G90" s="27"/>
-      <c r="H90" s="40"/>
+      <c r="H90" s="38"/>
       <c r="I90" s="25"/>
     </row>
     <row r="91" spans="1:9">
@@ -2453,7 +2446,7 @@
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
       <c r="G91" s="27"/>
-      <c r="H91" s="40"/>
+      <c r="H91" s="38"/>
       <c r="I91" s="25"/>
     </row>
     <row r="92" spans="1:9">
@@ -2466,7 +2459,7 @@
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
       <c r="G92" s="27"/>
-      <c r="H92" s="40"/>
+      <c r="H92" s="38"/>
       <c r="I92" s="25"/>
     </row>
     <row r="93" spans="1:9">
@@ -2479,7 +2472,7 @@
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
       <c r="G93" s="27"/>
-      <c r="H93" s="40"/>
+      <c r="H93" s="38"/>
       <c r="I93" s="25"/>
     </row>
     <row r="94" spans="1:9">
@@ -2492,7 +2485,7 @@
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
       <c r="G94" s="27"/>
-      <c r="H94" s="40"/>
+      <c r="H94" s="38"/>
       <c r="I94" s="25"/>
     </row>
     <row r="95" spans="1:9">
@@ -2505,7 +2498,7 @@
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
       <c r="G95" s="27"/>
-      <c r="H95" s="40"/>
+      <c r="H95" s="38"/>
       <c r="I95" s="25"/>
     </row>
     <row r="96" spans="1:9">
@@ -2518,7 +2511,7 @@
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
       <c r="G96" s="27"/>
-      <c r="H96" s="40"/>
+      <c r="H96" s="38"/>
       <c r="I96" s="25"/>
     </row>
     <row r="97" spans="1:9">
@@ -2531,7 +2524,7 @@
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
       <c r="G97" s="27"/>
-      <c r="H97" s="40"/>
+      <c r="H97" s="38"/>
       <c r="I97" s="25"/>
     </row>
     <row r="98" spans="1:9">
@@ -2544,7 +2537,7 @@
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
       <c r="G98" s="27"/>
-      <c r="H98" s="40"/>
+      <c r="H98" s="38"/>
       <c r="I98" s="25"/>
     </row>
     <row r="99" spans="1:9">
@@ -2557,7 +2550,7 @@
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
       <c r="G99" s="27"/>
-      <c r="H99" s="40"/>
+      <c r="H99" s="38"/>
       <c r="I99" s="25"/>
     </row>
     <row r="100" spans="1:9">
@@ -2570,7 +2563,7 @@
       <c r="E100" s="25"/>
       <c r="F100" s="25"/>
       <c r="G100" s="27"/>
-      <c r="H100" s="40"/>
+      <c r="H100" s="38"/>
       <c r="I100" s="25"/>
     </row>
     <row r="101" spans="1:9">
@@ -2581,7 +2574,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="10"/>
-      <c r="H101" s="41"/>
+      <c r="H101" s="39"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="7"/>
@@ -2591,7 +2584,7 @@
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="10"/>
-      <c r="H102" s="41"/>
+      <c r="H102" s="39"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="7"/>
@@ -2601,7 +2594,7 @@
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="10"/>
-      <c r="H103" s="41"/>
+      <c r="H103" s="39"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="7"/>
@@ -2611,7 +2604,7 @@
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="10"/>
-      <c r="H104" s="41"/>
+      <c r="H104" s="39"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="7"/>
@@ -2621,7 +2614,7 @@
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="10"/>
-      <c r="H105" s="41"/>
+      <c r="H105" s="39"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="7"/>
@@ -2631,7 +2624,7 @@
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="10"/>
-      <c r="H106" s="41"/>
+      <c r="H106" s="39"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="7"/>
@@ -2641,7 +2634,7 @@
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="10"/>
-      <c r="H107" s="41"/>
+      <c r="H107" s="39"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="7"/>
@@ -2651,7 +2644,7 @@
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="41"/>
+      <c r="H108" s="39"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="7"/>
@@ -2661,7 +2654,7 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="41"/>
+      <c r="H109" s="39"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="7"/>
@@ -2671,7 +2664,7 @@
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="10"/>
-      <c r="H110" s="41"/>
+      <c r="H110" s="39"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="7"/>
@@ -2681,7 +2674,7 @@
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="10"/>
-      <c r="H111" s="41"/>
+      <c r="H111" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/wiki/plan/Missed plan.xlsx
+++ b/wiki/plan/Missed plan.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
   <si>
     <t>No.</t>
   </si>
@@ -301,6 +301,54 @@
   </si>
   <si>
     <t>Chưa có giao diện của Admin</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Scheduling, assigning, staffs management</t>
+  </si>
+  <si>
+    <t>Admin functions: Staffs management, Fee management</t>
+  </si>
+  <si>
+    <t>Trips, routes, stations, coaches, coach types management</t>
+  </si>
+  <si>
+    <t>Requests, packages and tracking</t>
+  </si>
+  <si>
+    <t>Post, manage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return </t>
+  </si>
+  <si>
+    <t>Comment and rating</t>
+  </si>
+  <si>
+    <t>Admin functions: Schedule management</t>
+  </si>
+  <si>
+    <t>Searching: location(station, route), customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online payment </t>
+  </si>
+  <si>
+    <t>Manage request status (role Staff)</t>
+  </si>
+  <si>
+    <t>Trip management: manage departure &amp; arrival time</t>
+  </si>
+  <si>
+    <t>Invoice: export &amp; print</t>
+  </si>
+  <si>
+    <t>Late payment</t>
+  </si>
+  <si>
+    <t>Assign</t>
   </si>
 </sst>
 </file>
@@ -310,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,22 +387,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -362,15 +395,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
@@ -509,110 +564,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,1764 +1008,1841 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="83" style="7" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" ht="28.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A2" s="41">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="13"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="25"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="25"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="25"/>
+      <c r="H5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="25"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A7" s="42"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="25"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A8" s="42">
+      <c r="A8" s="14">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="25"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="25"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A10" s="42"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="25"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="25"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="17">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="17">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="17">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="25" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9">
       <c r="A16" s="17">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="25" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9">
       <c r="A17" s="17">
         <v>5</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="17">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75">
+      <c r="C18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="17">
         <v>7</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="17">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="17">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="18">
-        <v>41685</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="19">
+        <v>41685</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="17">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" hidden="1">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="17">
         <v>11</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" hidden="1">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="17">
         <v>12</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" hidden="1">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="17">
         <v>13</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" hidden="1">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="17">
         <v>14</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" hidden="1">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="17">
         <v>15</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" hidden="1">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="17">
         <v>16</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" hidden="1">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="17">
         <v>17</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" hidden="1">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="17">
         <v>18</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" hidden="1">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="17">
         <v>19</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" hidden="1">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="17">
         <v>20</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" hidden="1">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="17">
         <v>21</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" hidden="1">
+      <c r="C33" s="9"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="17">
         <v>22</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" hidden="1">
+      <c r="C34" s="9"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="17">
         <v>23</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" hidden="1">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="17">
         <v>24</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" hidden="1">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H36" s="28"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="17">
         <v>25</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" hidden="1">
+      <c r="C37" s="23"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="17">
         <v>26</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" hidden="1">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="17">
         <v>27</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="25"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" hidden="1">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H39" s="28"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="17">
         <v>28</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" hidden="1">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="17">
         <v>29</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" hidden="1">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H41" s="28"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="17">
         <v>30</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" hidden="1">
+      <c r="C42" s="34"/>
+      <c r="D42" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="17">
         <v>31</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" hidden="1">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="17">
         <v>32</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" hidden="1">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H44" s="28"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" s="17">
         <v>33</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" hidden="1">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H45" s="32"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="17">
         <v>34</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="25"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" hidden="1">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H46" s="28"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" s="17">
         <v>35</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" hidden="1">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H47" s="28"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="17">
         <v>36</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H48" s="36"/>
-      <c r="I48" s="25"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" hidden="1">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H48" s="28"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="17">
         <v>37</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" hidden="1">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H49" s="28"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="17">
         <v>39</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H50" s="36"/>
-      <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" hidden="1">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="17">
         <v>40</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="25"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" hidden="1">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H51" s="28"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="17">
         <v>41</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="25"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" hidden="1">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H52" s="28"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="17">
         <v>43</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H53" s="36"/>
-      <c r="I53" s="25"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" hidden="1">
+      <c r="C53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H53" s="28"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="17">
         <v>44</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H54" s="36"/>
-      <c r="I54" s="25"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" hidden="1">
+      <c r="C54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H54" s="28"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" s="17">
         <v>45</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" hidden="1">
+      <c r="C55" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" s="17">
         <v>47</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="25"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" hidden="1">
+      <c r="C56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H56" s="28"/>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="17">
         <v>48</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H57" s="36"/>
-      <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" hidden="1">
+      <c r="C57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H57" s="28"/>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="17">
         <v>49</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="25"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" hidden="1">
+      <c r="C58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H58" s="28"/>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="17">
         <v>51</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="25"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" hidden="1">
+      <c r="C59" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H59" s="28"/>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="17">
         <v>52</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="25"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" hidden="1">
+      <c r="C60" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H60" s="28"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="17">
         <v>53</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="25"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" hidden="1">
+      <c r="C61" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H61" s="28"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" s="17">
         <v>54</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H62" s="36"/>
-      <c r="I62" s="25"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" hidden="1">
+      <c r="C62" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H62" s="28"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="17">
         <v>55</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="25"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" hidden="1">
+      <c r="C63" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H63" s="28"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="17">
         <v>56</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="25"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" hidden="1">
+      <c r="C64" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H64" s="28"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="17">
         <v>57</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H65" s="36"/>
-      <c r="I65" s="25"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" hidden="1">
+      <c r="C65" s="36"/>
+      <c r="D65" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H65" s="28"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="17">
         <v>58</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="20">
-        <v>41685</v>
-      </c>
-      <c r="H66" s="36"/>
-      <c r="I66" s="25"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="24">
+        <v>41685</v>
+      </c>
+      <c r="H66" s="28"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="17">
         <v>59</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="25"/>
+      <c r="B67" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="17">
         <v>60</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="25"/>
+      <c r="B68" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="42"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="17">
         <v>61</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="25"/>
+      <c r="B69" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="17">
         <v>62</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="25"/>
+      <c r="B70" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="17">
         <v>63</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="25"/>
+      <c r="B71" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="17">
         <v>64</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="25"/>
+      <c r="B72" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="42"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="17">
         <v>65</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="25"/>
+      <c r="B73" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="42"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="17">
         <v>66</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="25"/>
+      <c r="B74" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="17">
         <v>67</v>
       </c>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="25"/>
+      <c r="B75" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="42"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="43"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="17">
         <v>68</v>
       </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="25"/>
+      <c r="B76" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="17">
         <v>69</v>
       </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="25"/>
+      <c r="B77" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="12"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="17">
         <v>70</v>
       </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="25"/>
+      <c r="B78" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="46"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="17">
         <v>71</v>
       </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="25"/>
+      <c r="B79" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="46"/>
+      <c r="D79" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="46"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="17">
         <v>72</v>
       </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="25"/>
+      <c r="B80" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="17">
         <v>73</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="25"/>
+      <c r="B81" s="47">
+        <v>41722</v>
+      </c>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="50">
+        <v>41724</v>
+      </c>
+      <c r="H81" s="40"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="17">
         <v>74</v>
       </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="25"/>
+      <c r="B82" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="17">
         <v>75</v>
       </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="25"/>
+      <c r="B83" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="46"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="17">
         <v>76</v>
       </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="25"/>
+      <c r="B84" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="46"/>
+      <c r="D84" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="46"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="17">
         <v>77</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="25"/>
+      <c r="B85" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="17">
         <v>78</v>
       </c>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="25"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="12"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="17">
         <v>79</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="25"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="53"/>
+      <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="17">
         <v>80</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="25"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="17">
         <v>81</v>
       </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="25"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="12"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="17">
         <v>82</v>
       </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="25"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="12"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="17">
         <v>83</v>
       </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="25"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="12"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="17">
         <v>84</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="25"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="12"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="17">
         <v>85</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="25"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="12"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="17">
         <v>86</v>
       </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="25"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="12"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="17">
         <v>87</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="25"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="12"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="17">
         <v>88</v>
       </c>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="25"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="12"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="17">
         <v>89</v>
       </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="25"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="12"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="17">
         <v>90</v>
       </c>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="25"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="12"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="17">
         <v>91</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="25"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="12"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="17">
         <v>92</v>
       </c>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="25"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="12"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="39"/>
+      <c r="A101" s="54"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="56"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="39"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="56"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="39"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="56"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="39"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="56"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="39"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="56"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="39"/>
+      <c r="A106" s="54"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="56"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="39"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="56"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="39"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="56"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="39"/>
+      <c r="A109" s="54"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="56"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="39"/>
+      <c r="A110" s="54"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="39"/>
+      <c r="A111" s="54"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2682,7 +2850,7 @@
     <mergeCell ref="A8:A12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F22 H2:H30 F42:F43 E44:F66 C23:C66 E23:F41 D23:D32 D34:D66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F22 H2:H30 F42:F43 E44:F66 C23:C67 E23:F41 D23:D32 D34:D69 F85 F80 D76:E85 F82:F83 C70:E71 E68 F67:F71 H67:H85 F75:F78 E72:E74 C72:C84">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
